--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail13 Features.xlsx
@@ -1572,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1583,29 +1583,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1626,115 +1624,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -1751,72 +1739,66 @@
         <v>1.866172305628329e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.9290774930172553</v>
+        <v>8.670204786135135e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.4474805401887836</v>
+        <v>1.715351504346245e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.670204786135135e-07</v>
+        <v>0.02684329045417672</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.715351504346245e-06</v>
+        <v>0.2179283026063813</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.02684329045417672</v>
+        <v>0.04820813276770188</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2179283026063813</v>
+        <v>1.821508218388426</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04820813276770188</v>
+        <v>1.87835248789029</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.799694803278286</v>
+        <v>4.314060968787791</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.87835248789029</v>
+        <v>4.286928630758947e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.314060968787791</v>
+        <v>288294376.0220294</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.286928630758947e-16</v>
+        <v>4.045384933521969e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>288294376.0220294</v>
+        <v>35.63022739853822</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.045384933521969e-07</v>
+        <v>0.0001299085005188839</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>35.63022739853822</v>
+        <v>8.787804563874058</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001299085005188839</v>
+        <v>1.211718868012296</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.787804563874058</v>
+        <v>0.01003225008286268</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.211718868012296</v>
+        <v>3.02699049029918</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01003225008286268</v>
+        <v>0.9584799724200881</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.02699049029918</v>
+        <v>1.635647027290002</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9584799724200881</v>
+        <v>69</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.635647027290002</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2358354320731892</v>
       </c>
     </row>
@@ -1831,72 +1813,66 @@
         <v>1.801999656596048e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.125998542539722</v>
+        <v>8.129761936872601e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.4695847698156856</v>
+        <v>1.719858681947085e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.129761936872601e-07</v>
+        <v>0.02223184185727542</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.719858681947085e-06</v>
+        <v>0.2230131377515673</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.02223184185727542</v>
+        <v>0.05022308537002906</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2230131377515673</v>
+        <v>1.819439443401643</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05022308537002906</v>
+        <v>1.966269337060111</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.799286139640583</v>
+        <v>4.340398864695191</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.966269337060111</v>
+        <v>4.235059614114135e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.340398864695191</v>
+        <v>296734338.0506941</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.235059614114135e-16</v>
+        <v>3.941458567143953e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>296734338.0506941</v>
+        <v>37.29023664457578</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.941458567143953e-07</v>
+        <v>0.0001436519200343246</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>37.29023664457578</v>
+        <v>7.910678693528213</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001436519200343246</v>
+        <v>1.566642131571793</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.910678693528213</v>
+        <v>0.008989570144911242</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.566642131571793</v>
+        <v>3.151965698616408</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008989570144911242</v>
+        <v>0.9574370027307555</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.151965698616408</v>
+        <v>1.580559709476425</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9574370027307555</v>
+        <v>69</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.580559709476425</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2262841128816289</v>
       </c>
     </row>
@@ -1911,72 +1887,66 @@
         <v>1.754619077208948e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.278213533324782</v>
+        <v>7.575078036576658e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.5133475732554516</v>
+        <v>1.723357004484253e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.575078036576658e-07</v>
+        <v>0.01706349755127843</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.723357004484253e-06</v>
+        <v>0.2259140404205847</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.01706349755127843</v>
+        <v>0.05132146293212777</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2259140404205847</v>
+        <v>1.825430309450333</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05132146293212777</v>
+        <v>1.946828398149405</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.805335165683245</v>
+        <v>4.299143756293181</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.946828398149405</v>
+        <v>4.316729900245685e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.299143756293181</v>
+        <v>296429593.112759</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.316729900245685e-16</v>
+        <v>3.967424507995882e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>296429593.112759</v>
+        <v>37.93132305548696</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.967424507995882e-07</v>
+        <v>0.0001560449391949747</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>37.93132305548696</v>
+        <v>8.352174959905492</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001560449391949747</v>
+        <v>1.599789121561858</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.352174959905492</v>
+        <v>0.01088551184900411</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.599789121561858</v>
+        <v>3.103012088054436</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01088551184900411</v>
+        <v>0.9588262287418527</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.103012088054436</v>
+        <v>1.553528432985795</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9588262287418527</v>
+        <v>54</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.553528432985795</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2222782802745282</v>
       </c>
     </row>
@@ -1991,72 +1961,66 @@
         <v>1.723733733938995e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.375750877012404</v>
+        <v>6.970033197897283e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.564151354260146</v>
+        <v>1.725822018124723e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.970033197897283e-07</v>
+        <v>0.01116842527387883</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.725822018124723e-06</v>
+        <v>0.2258598609975661</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.01116842527387883</v>
+        <v>0.05112807776848698</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2258598609975661</v>
+        <v>1.826719917144795</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05112807776848698</v>
+        <v>1.932789012656074</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.805084148707057</v>
+        <v>4.190128284120852</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.932789012656074</v>
+        <v>4.544270462889587e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.190128284120852</v>
+        <v>284306455.3751995</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.544270462889587e-16</v>
+        <v>4.13424269237966e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>284306455.3751995</v>
+        <v>36.73141111798318</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.13424269237966e-07</v>
+        <v>0.0001384772862603112</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>36.73141111798318</v>
+        <v>9.267639388955979</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001384772862603112</v>
+        <v>1.197936961555295</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.267639388955979</v>
+        <v>0.01189369500479187</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.197936961555295</v>
+        <v>3.015132305120884</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01189369500479187</v>
+        <v>0.9587445674629476</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.015132305120884</v>
+        <v>1.611921751929749</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9587445674629476</v>
+        <v>32</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.611921751929749</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2292486822895089</v>
       </c>
     </row>
@@ -2433,7 +2397,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.144916869111339</v>
+        <v>1.139204639969581</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.063636869967551</v>
@@ -2522,7 +2486,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.153673739549327</v>
+        <v>1.146826958907975</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.011620962987005</v>
@@ -2611,7 +2575,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.145658506173106</v>
+        <v>1.133301803617412</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.004324672335345</v>
@@ -2700,7 +2664,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.151027423636386</v>
+        <v>1.141101352298946</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.011069093984457</v>
@@ -2789,7 +2753,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.160132845557467</v>
+        <v>1.151816259641342</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.949971672672339</v>
@@ -2878,7 +2842,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.17181334722472</v>
+        <v>1.164040186210483</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.947886064817009</v>
@@ -2967,7 +2931,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.172047767411727</v>
+        <v>1.159219983243683</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.799826610416118</v>
@@ -3056,7 +3020,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.183545157842176</v>
+        <v>1.167667125781159</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.938419086046687</v>
@@ -3145,7 +3109,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.191237191073899</v>
+        <v>1.170116796041828</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.897382614329631</v>
@@ -3234,7 +3198,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.175032534560107</v>
+        <v>1.149992994285322</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.031306068583533</v>
@@ -3323,7 +3287,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.166963529771189</v>
+        <v>1.141761845699061</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.983469431609856</v>
@@ -3412,7 +3376,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.158723015484615</v>
+        <v>1.136127942751186</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.989538537710679</v>
@@ -3501,7 +3465,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.161092710598509</v>
+        <v>1.140601847457239</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.953902422889006</v>
@@ -3590,7 +3554,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.165482956537886</v>
+        <v>1.14557483237262</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.996771269725347</v>
@@ -3679,7 +3643,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.167278432063709</v>
+        <v>1.143383743437929</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.943808192566647</v>
@@ -3768,7 +3732,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.160987478040579</v>
+        <v>1.140925507354301</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.014436313458358</v>
@@ -3857,7 +3821,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.168639316314482</v>
+        <v>1.146910801150798</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.946542507939964</v>
@@ -3946,7 +3910,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.175200637582982</v>
+        <v>1.151401938670482</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.879192293555757</v>
@@ -4035,7 +3999,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.16360971003322</v>
+        <v>1.136233788480854</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.01598017312051</v>
@@ -4124,7 +4088,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.155249256610944</v>
+        <v>1.128039587192312</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.053519936213888</v>
@@ -4213,7 +4177,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.144723738111143</v>
+        <v>1.119963930796108</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.856619488541094</v>
@@ -4302,7 +4266,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.158250904272945</v>
+        <v>1.137276211854164</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.056967929465725</v>
@@ -4391,7 +4355,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.155573373235629</v>
+        <v>1.13565710666201</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.048457181696634</v>
@@ -4480,7 +4444,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.160642267898444</v>
+        <v>1.138215701382278</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.025346502153341</v>
@@ -4569,7 +4533,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.160416745089239</v>
+        <v>1.145990710162284</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.032362042194109</v>
@@ -4658,7 +4622,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.166395853840718</v>
+        <v>1.150635843712691</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.183391460747639</v>
@@ -4747,7 +4711,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.17487950834065</v>
+        <v>1.160176044635975</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.022886910926423</v>
@@ -4836,7 +4800,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.16394647925657</v>
+        <v>1.148076081513267</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.125579455702629</v>
@@ -4925,7 +4889,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.144597937880363</v>
+        <v>1.127379759615537</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.167443560006905</v>
@@ -5014,7 +4978,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.143466067106355</v>
+        <v>1.127375838949775</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.098341480538985</v>
@@ -5103,7 +5067,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.134596402333156</v>
+        <v>1.116216926657668</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.207104262156598</v>
@@ -5192,7 +5156,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.128603730316999</v>
+        <v>1.112550257148765</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.119247929736212</v>
@@ -5281,7 +5245,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.129041041651691</v>
+        <v>1.116180332743074</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.975821787364792</v>
@@ -5370,7 +5334,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.136989733354773</v>
+        <v>1.129971987141408</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.074805624130356</v>
@@ -5459,7 +5423,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.140815384869901</v>
+        <v>1.132514193587479</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.922360204301373</v>
@@ -5548,7 +5512,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.145130689000756</v>
+        <v>1.134654509411801</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.028579808801222</v>
@@ -5637,7 +5601,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.134525791632535</v>
+        <v>1.125423586058111</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.100085552011382</v>
@@ -5726,7 +5690,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.135382041613094</v>
+        <v>1.127470206246105</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.115638823843426</v>
@@ -5815,7 +5779,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.140445774667405</v>
+        <v>1.134815335465788</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.102403428786065</v>
@@ -5904,7 +5868,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.143078096232949</v>
+        <v>1.134524647107182</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.082547888990627</v>
@@ -5993,7 +5957,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.132592553585264</v>
+        <v>1.123013115912853</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.978399519211308</v>
@@ -6082,7 +6046,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.127600974610767</v>
+        <v>1.122786850105018</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.074733101738583</v>
@@ -6171,7 +6135,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.141957537106939</v>
+        <v>1.135469030092883</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.110876294792589</v>
@@ -6260,7 +6224,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.144740791573624</v>
+        <v>1.140986351675901</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.814531574732763</v>
@@ -6349,7 +6313,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.143294553441306</v>
+        <v>1.140408873067087</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.020484639088949</v>
@@ -6438,7 +6402,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.15188941083755</v>
+        <v>1.145909601168722</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.075367388493113</v>
@@ -6527,7 +6491,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.143207710985466</v>
+        <v>1.135461653240088</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.144565306900676</v>
@@ -6616,7 +6580,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.142417779359733</v>
+        <v>1.13442172368416</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.097124143118192</v>
@@ -6705,7 +6669,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.136427315847737</v>
+        <v>1.127098503361781</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.056189848117388</v>
@@ -6991,7 +6955,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.50948661585415</v>
+        <v>1.511304482526448</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.460664082109375</v>
@@ -7080,7 +7044,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.506586285560779</v>
+        <v>1.51226352972496</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.547344763718448</v>
@@ -7169,7 +7133,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.515685598810097</v>
+        <v>1.522995126460699</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.210270876128021</v>
@@ -7258,7 +7222,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.509731629952222</v>
+        <v>1.519327133991734</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.482927194599513</v>
@@ -7347,7 +7311,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.530826291069665</v>
+        <v>1.538160530367634</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.312805340748658</v>
@@ -7436,7 +7400,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.53558626401192</v>
+        <v>1.544238696136695</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.486107780013113</v>
@@ -7525,7 +7489,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.583948177454606</v>
+        <v>1.589262216452184</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.82441155857108</v>
@@ -7614,7 +7578,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.582948210062074</v>
+        <v>1.587718595362141</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.757141574909554</v>
@@ -7703,7 +7667,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.591205788635181</v>
+        <v>1.590538125468607</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.976145450840166</v>
@@ -7792,7 +7756,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.598431263691017</v>
+        <v>1.597687327717858</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.911160206126337</v>
@@ -7881,7 +7845,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.59722898883608</v>
+        <v>1.595243314315945</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.960830154798913</v>
@@ -7970,7 +7934,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.599286797508721</v>
+        <v>1.600911940438367</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.160429061169736</v>
@@ -8059,7 +8023,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.59390496677848</v>
+        <v>1.602094750117573</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.227924929255162</v>
@@ -8148,7 +8112,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.60029245064581</v>
+        <v>1.609379744402325</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.228801498889786</v>
@@ -8237,7 +8201,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.61444381659088</v>
+        <v>1.614249176871275</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.974042847711677</v>
@@ -8326,7 +8290,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.60658994184361</v>
+        <v>1.606949145178837</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.898984298110501</v>
@@ -8415,7 +8379,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.596378240790898</v>
+        <v>1.596434828738157</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.107863412786849</v>
@@ -8504,7 +8468,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.587106989356706</v>
+        <v>1.586890349257292</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.864952411872786</v>
@@ -8593,7 +8557,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.574092974205691</v>
+        <v>1.568351470938665</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.209464849436103</v>
@@ -8682,7 +8646,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.569033273788795</v>
+        <v>1.572716315124554</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.90097586777378</v>
@@ -8771,7 +8735,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.549311753028003</v>
+        <v>1.555385976425252</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.095209598907152</v>
@@ -8860,7 +8824,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.524070148810181</v>
+        <v>1.534366875837283</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.9317949993564</v>
@@ -8949,7 +8913,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.513352346019775</v>
+        <v>1.520094994563257</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.704414806348363</v>
@@ -9038,7 +9002,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.491233561456018</v>
+        <v>1.50438729745826</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.840094460688285</v>
@@ -9127,7 +9091,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.48618691091467</v>
+        <v>1.505217070230055</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.873667079390551</v>
@@ -9216,7 +9180,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.48924013841139</v>
+        <v>1.509191992059824</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.956794727983624</v>
@@ -9305,7 +9269,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.494123138254998</v>
+        <v>1.512238223301006</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.687374765638494</v>
@@ -9394,7 +9358,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.488665110687217</v>
+        <v>1.50648146603424</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.833304085105032</v>
@@ -9483,7 +9447,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.484828011124758</v>
+        <v>1.505104075135456</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.721669273299947</v>
@@ -9572,7 +9536,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.477586000775024</v>
+        <v>1.500370846183371</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.855609898066154</v>
@@ -9661,7 +9625,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.464513097899347</v>
+        <v>1.485934461493143</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.807056789107699</v>
@@ -9750,7 +9714,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.474818219562927</v>
+        <v>1.497235572083863</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.75832219891975</v>
@@ -9839,7 +9803,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.484288045707466</v>
+        <v>1.503001790143562</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.730438634630953</v>
@@ -9928,7 +9892,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.493131125931491</v>
+        <v>1.510517594007686</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.622371165864682</v>
@@ -10017,7 +9981,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.486185960613021</v>
+        <v>1.503481770189968</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.755546495249821</v>
@@ -10106,7 +10070,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.506169860438775</v>
+        <v>1.526305150088201</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.648724031675443</v>
@@ -10195,7 +10159,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.514353575020146</v>
+        <v>1.533332441157685</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.648838016396902</v>
@@ -10284,7 +10248,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.512727690472261</v>
+        <v>1.533013134531501</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.820694150132827</v>
@@ -10373,7 +10337,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.530855060046143</v>
+        <v>1.545966144217149</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.840392126787338</v>
@@ -10462,7 +10426,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.513329011133392</v>
+        <v>1.528580416728518</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.869486166299527</v>
@@ -10551,7 +10515,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.501847887321577</v>
+        <v>1.523508334361313</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.468208628910487</v>
@@ -10640,7 +10604,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.501562559907627</v>
+        <v>1.522221757191365</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.796889628669901</v>
@@ -10729,7 +10693,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.511641589522023</v>
+        <v>1.529804253159754</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.850659766902409</v>
@@ -10818,7 +10782,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.504336902403436</v>
+        <v>1.522832820286131</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.744167332259047</v>
@@ -10907,7 +10871,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.496369581444049</v>
+        <v>1.517055952128345</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.514195334969653</v>
@@ -10996,7 +10960,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.506248674740496</v>
+        <v>1.530092197702387</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.823431536236583</v>
@@ -11085,7 +11049,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.498293137426159</v>
+        <v>1.521752321399358</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.589047900553072</v>
@@ -11174,7 +11138,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.499861835438646</v>
+        <v>1.525746161034044</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.646614032274133</v>
@@ -11263,7 +11227,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.515952805047405</v>
+        <v>1.539596556253863</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.50305545432294</v>
@@ -11549,7 +11513,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.509685766754687</v>
+        <v>1.512534475156807</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.501270650870027</v>
@@ -11638,7 +11602,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.52327896007245</v>
+        <v>1.522990431902631</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.45316091702545</v>
@@ -11727,7 +11691,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.516250430167886</v>
+        <v>1.516683802279944</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.420808466376672</v>
@@ -11816,7 +11780,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.506228906920936</v>
+        <v>1.506604353982122</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.48625740902069</v>
@@ -11905,7 +11869,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.52484215981168</v>
+        <v>1.521597583068391</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.398775271604727</v>
@@ -11994,7 +11958,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.550064715320077</v>
+        <v>1.538955681171735</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.423918813121746</v>
@@ -12083,7 +12047,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.584236732255051</v>
+        <v>1.572120305214527</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.077592952980771</v>
@@ -12172,7 +12136,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.589414421642599</v>
+        <v>1.572038808032513</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.116609606299725</v>
@@ -12261,7 +12225,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.599687827436564</v>
+        <v>1.579871932181306</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.244802925492536</v>
@@ -12350,7 +12314,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.61552061981484</v>
+        <v>1.594650425815205</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.213296779694246</v>
@@ -12439,7 +12403,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.615753123677233</v>
+        <v>1.592301266147333</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.262905952390348</v>
@@ -12528,7 +12492,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.618039284914975</v>
+        <v>1.593671185005982</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.259229268861636</v>
@@ -12617,7 +12581,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.608003577697345</v>
+        <v>1.585451440877975</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.266343629830993</v>
@@ -12706,7 +12670,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.617098040997187</v>
+        <v>1.593506227027287</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.15013596842978</v>
@@ -12795,7 +12759,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.618652385261118</v>
+        <v>1.590017075467776</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.011929941793295</v>
@@ -12884,7 +12848,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.609502541772021</v>
+        <v>1.582391540887168</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.205461929929453</v>
@@ -12973,7 +12937,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.606440591836155</v>
+        <v>1.577138988500315</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.085637945382908</v>
@@ -13062,7 +13026,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.588835328539228</v>
+        <v>1.56150115518667</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.744050048804229</v>
@@ -13151,7 +13115,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.578874917025464</v>
+        <v>1.548454826659679</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.722378766873939</v>
@@ -13240,7 +13204,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.565532788871082</v>
+        <v>1.546243622446799</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.688805438681317</v>
@@ -13329,7 +13293,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.539987983191488</v>
+        <v>1.528125199689004</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.409861999404019</v>
@@ -13418,7 +13382,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.51795198416919</v>
+        <v>1.514899819859136</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.732262542586109</v>
@@ -13507,7 +13471,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.508039291956697</v>
+        <v>1.505858520878143</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.779189682479096</v>
@@ -13596,7 +13560,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.494782982264441</v>
+        <v>1.493857533028229</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.706982646478172</v>
@@ -13685,7 +13649,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.481486992982315</v>
+        <v>1.480192634981303</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.769444497360712</v>
@@ -13774,7 +13738,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.474474853507532</v>
+        <v>1.474006557104048</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.804810080607743</v>
@@ -13863,7 +13827,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.479709532980738</v>
+        <v>1.479993716071053</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.714704735382651</v>
@@ -13952,7 +13916,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.460204771062311</v>
+        <v>1.464764901822078</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.786113402350872</v>
@@ -14041,7 +14005,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.44184664256082</v>
+        <v>1.448284677393764</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.794837763755481</v>
@@ -14130,7 +14094,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.433428445487561</v>
+        <v>1.444671247260015</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.819954031562864</v>
@@ -14219,7 +14183,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.420174498815067</v>
+        <v>1.431459046612634</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.792323680152529</v>
@@ -14308,7 +14272,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.423259257024422</v>
+        <v>1.436189785140803</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.665624553702906</v>
@@ -14397,7 +14361,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.437082187853488</v>
+        <v>1.451299443628916</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.880927484204491</v>
@@ -14486,7 +14450,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.457316039754615</v>
+        <v>1.465439718941745</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.551660967727376</v>
@@ -14575,7 +14539,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.448052011726767</v>
+        <v>1.452369174629708</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.767189994758474</v>
@@ -14664,7 +14628,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.462313786539874</v>
+        <v>1.46839187432337</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.511759601781074</v>
@@ -14753,7 +14717,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.470812005826656</v>
+        <v>1.473930846475894</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.509998498964249</v>
@@ -14842,7 +14806,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.478645609938446</v>
+        <v>1.4774042812498</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.910578315630528</v>
@@ -14931,7 +14895,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.487630773029881</v>
+        <v>1.486159776542499</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.622701844396682</v>
@@ -15020,7 +14984,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.478424387162667</v>
+        <v>1.475935813436409</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.713243077091281</v>
@@ -15109,7 +15073,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.468582307555383</v>
+        <v>1.471060383017801</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.770139341417375</v>
@@ -15198,7 +15162,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.47064136759087</v>
+        <v>1.470442971772316</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.642364390469922</v>
@@ -15287,7 +15251,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.494439637369574</v>
+        <v>1.489702829459205</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.587351939394669</v>
@@ -15376,7 +15340,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.479793169586967</v>
+        <v>1.476480496127106</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.566531217288993</v>
@@ -15465,7 +15429,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.472802359200652</v>
+        <v>1.471710577721828</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.555520152220552</v>
@@ -15554,7 +15518,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.486186385826572</v>
+        <v>1.482537634093547</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.463088984546074</v>
@@ -15643,7 +15607,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.47361697014168</v>
+        <v>1.469862477581269</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.393767185000621</v>
@@ -15732,7 +15696,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.474276343697271</v>
+        <v>1.470954831716015</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.409713272585542</v>
@@ -15821,7 +15785,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.472993358239224</v>
+        <v>1.472395494817339</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.59788461850422</v>
@@ -16107,7 +16071,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.52580987039362</v>
+        <v>1.50399798669357</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.921265588678398</v>
@@ -16196,7 +16160,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.537370462166084</v>
+        <v>1.512086708275358</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.736202770914473</v>
@@ -16285,7 +16249,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.53207778291106</v>
+        <v>1.508284549133949</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.651834421146573</v>
@@ -16374,7 +16338,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.525108036731283</v>
+        <v>1.503026142064354</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.739265049248422</v>
@@ -16463,7 +16427,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.543607829052482</v>
+        <v>1.484188327464992</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.868440191811534</v>
@@ -16552,7 +16516,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.465489097588331</v>
+        <v>1.446585942406799</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.924200026771777</v>
@@ -16641,7 +16605,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.474192976790023</v>
+        <v>1.452928593932897</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.918430991366152</v>
@@ -16730,7 +16694,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.488973821376195</v>
+        <v>1.464291652250535</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.889897495568369</v>
@@ -16819,7 +16783,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.498981263473236</v>
+        <v>1.47183795735086</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.888724900127951</v>
@@ -16908,7 +16872,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.491978009705211</v>
+        <v>1.470104058286581</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.891396637150738</v>
@@ -16997,7 +16961,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.48412971459756</v>
+        <v>1.461817008495271</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.927198245342314</v>
@@ -17086,7 +17050,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.480664701196422</v>
+        <v>1.462686041490317</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.871807474266503</v>
@@ -17175,7 +17139,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.478954503239216</v>
+        <v>1.462844787447203</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.901264428345586</v>
@@ -17264,7 +17228,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.488480676242929</v>
+        <v>1.473573616898688</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.901714116341641</v>
@@ -17353,7 +17317,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.488903714195794</v>
+        <v>1.473545023518339</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.916382959987817</v>
@@ -17442,7 +17406,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.485347678635281</v>
+        <v>1.469814653132098</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.909999697945977</v>
@@ -17531,7 +17495,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.477799302385445</v>
+        <v>1.461045957300444</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.902424872152326</v>
@@ -17620,7 +17584,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.479176874854657</v>
+        <v>1.462294933321804</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.930652748976193</v>
@@ -17709,7 +17673,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.481491782483028</v>
+        <v>1.461379386603414</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.926497933712218</v>
@@ -17798,7 +17762,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.543055383051054</v>
+        <v>1.520351396271643</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.936213354450436</v>
@@ -17887,7 +17851,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.558640769108958</v>
+        <v>1.537618678086271</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.859412319982733</v>
@@ -17976,7 +17940,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.550535677373594</v>
+        <v>1.531478734404852</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.354229358763405</v>
@@ -18065,7 +18029,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.53277007400664</v>
+        <v>1.518022160196822</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.028002563607104</v>
@@ -18154,7 +18118,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.514754850013155</v>
+        <v>1.502815944538056</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.808949360377156</v>
@@ -18243,7 +18207,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.511039358416529</v>
+        <v>1.499171531404978</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.085352549554497</v>
@@ -18332,7 +18296,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.514343316769145</v>
+        <v>1.503796345243083</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.874081145896595</v>
@@ -18421,7 +18385,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.513809028419021</v>
+        <v>1.50642046611138</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.026120397041028</v>
@@ -18510,7 +18474,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.497840491590422</v>
+        <v>1.494439010364809</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.133053930720036</v>
@@ -18599,7 +18563,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.486811930056548</v>
+        <v>1.489126577152109</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.067383835920836</v>
@@ -18688,7 +18652,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.4674628033547</v>
+        <v>1.472802037197557</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.95068652913879</v>
@@ -18777,7 +18741,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.459953887030969</v>
+        <v>1.466542361702183</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.990360582255552</v>
@@ -18866,7 +18830,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.457412868859358</v>
+        <v>1.469816451199129</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.758662643329185</v>
@@ -18955,7 +18919,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.467092733523033</v>
+        <v>1.477067093454664</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.779189789806469</v>
@@ -19044,7 +19008,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.474036426588335</v>
+        <v>1.485370911016437</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.625643440606878</v>
@@ -19133,7 +19097,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.477238523527011</v>
+        <v>1.488031214757482</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.99799279851668</v>
@@ -19222,7 +19186,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.487298453969145</v>
+        <v>1.492879615436841</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.689569497164182</v>
@@ -19311,7 +19275,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.484114701280205</v>
+        <v>1.488642749566151</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.85140901678789</v>
@@ -19400,7 +19364,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.50184835727768</v>
+        <v>1.498488709382275</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.81246565111297</v>
@@ -19489,7 +19453,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.513754131907316</v>
+        <v>1.506972284777266</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.78794144423096</v>
@@ -19578,7 +19542,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.492433245004859</v>
+        <v>1.486306085791968</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.692371855262485</v>
@@ -19667,7 +19631,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.49425005496056</v>
+        <v>1.492115048446175</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.41992921453313</v>
@@ -19756,7 +19720,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.496900598631645</v>
+        <v>1.493755936877278</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.658739398199873</v>
@@ -19845,7 +19809,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.518213857559889</v>
+        <v>1.505405218117869</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.66009619335485</v>
@@ -19934,7 +19898,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.515670709501307</v>
+        <v>1.501537798889555</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.563784782206899</v>
@@ -20023,7 +19987,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.521673382447793</v>
+        <v>1.503791100296267</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.488141546364641</v>
@@ -20112,7 +20076,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.541350081885581</v>
+        <v>1.522100791976575</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.587723616523825</v>
@@ -20201,7 +20165,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.531917194251389</v>
+        <v>1.511730418197447</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.656912603891466</v>
@@ -20290,7 +20254,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.530932424708647</v>
+        <v>1.511209176321993</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.502051290047736</v>
@@ -20379,7 +20343,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.528234761235313</v>
+        <v>1.510616932874889</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.513328795938077</v>
@@ -20665,7 +20629,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.48933931830098</v>
+        <v>1.488726440368936</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.263380175388124</v>
@@ -20754,7 +20718,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.490756397696009</v>
+        <v>1.491933368895438</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.252234352455364</v>
@@ -20843,7 +20807,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.491673118323233</v>
+        <v>1.493520376187288</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.177676144586787</v>
@@ -20932,7 +20896,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.502375258870139</v>
+        <v>1.50303977259528</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.191549507931675</v>
@@ -21021,7 +20985,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.560281431369786</v>
+        <v>1.55451437648868</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.88021758831837</v>
@@ -21110,7 +21074,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.584110101095981</v>
+        <v>1.572154432187547</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.9540618325494</v>
@@ -21199,7 +21163,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.606148914878702</v>
+        <v>1.592361504655683</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.091505025460208</v>
@@ -21288,7 +21252,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.610452476421695</v>
+        <v>1.596184523564881</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.160844644293648</v>
@@ -21377,7 +21341,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.609617825473091</v>
+        <v>1.585358477109055</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.153721290045465</v>
@@ -21466,7 +21430,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.58583759865431</v>
+        <v>1.564687316779988</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.801475310661893</v>
@@ -21555,7 +21519,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.531737182127457</v>
+        <v>1.505205562363961</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.156491539289495</v>
@@ -21644,7 +21608,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.512658144292518</v>
+        <v>1.493754965713431</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.121727077754717</v>
@@ -21733,7 +21697,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.51509211926711</v>
+        <v>1.499481136291151</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.121746021189074</v>
@@ -21822,7 +21786,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.519744090044236</v>
+        <v>1.500163304121933</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.105468943837674</v>
@@ -21911,7 +21875,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.526833583465028</v>
+        <v>1.501480622286453</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.163078097040543</v>
@@ -22000,7 +21964,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.527521836242545</v>
+        <v>1.496600051633052</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.097462654654975</v>
@@ -22089,7 +22053,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.520611215293449</v>
+        <v>1.487641897411393</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.08953769609344</v>
@@ -22178,7 +22142,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.516269067395362</v>
+        <v>1.482227930663437</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.143749596370873</v>
@@ -22267,7 +22231,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.516975197902269</v>
+        <v>1.483219997147354</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.167061492569869</v>
@@ -22356,7 +22320,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.515461001486575</v>
+        <v>1.483574525770019</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.13483373660138</v>
@@ -22445,7 +22409,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.514932266345003</v>
+        <v>1.480949976619701</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.190383722409632</v>
@@ -22534,7 +22498,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.525342939636858</v>
+        <v>1.486418967808076</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.087874415478198</v>
@@ -22623,7 +22587,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.520028245289224</v>
+        <v>1.47771262392539</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.193901239797099</v>
@@ -22712,7 +22676,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.524592259001023</v>
+        <v>1.489099112127649</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.088133400220594</v>
@@ -22801,7 +22765,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.539160464887199</v>
+        <v>1.499466976846975</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.952281633915677</v>
@@ -22890,7 +22854,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.606610576857139</v>
+        <v>1.561446734562733</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.419950847753293</v>
@@ -22979,7 +22943,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.623460261431332</v>
+        <v>1.572542381469348</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.969012162537893</v>
@@ -23068,7 +23032,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.617333194650229</v>
+        <v>1.570594371852319</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.117260127267896</v>
@@ -23157,7 +23121,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.602616720620271</v>
+        <v>1.559740538200131</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.800283701457015</v>
@@ -23246,7 +23210,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.585989074761788</v>
+        <v>1.549130607119606</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.888195157583104</v>
@@ -23335,7 +23299,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.577809904340347</v>
+        <v>1.545670538337019</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.754156016179821</v>
@@ -23424,7 +23388,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.587569081196079</v>
+        <v>1.557776935428972</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.842693193885156</v>
@@ -23513,7 +23477,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.600456081472905</v>
+        <v>1.564858493458906</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.570817234438667</v>
@@ -23602,7 +23566,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.599813917541898</v>
+        <v>1.565936390730287</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.62087233378757</v>
@@ -23691,7 +23655,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.594243625599259</v>
+        <v>1.560076847500191</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.792471857162886</v>
@@ -23780,7 +23744,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.522670266272807</v>
+        <v>1.497199808320724</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.170853849835443</v>
@@ -23869,7 +23833,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.493445430641635</v>
+        <v>1.475489667869929</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.1807704232955</v>
@@ -23958,7 +23922,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.501272677549441</v>
+        <v>1.481695664470154</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.187522246586771</v>
@@ -24047,7 +24011,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.49961952227445</v>
+        <v>1.476872662106713</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.172215069336905</v>
@@ -24136,7 +24100,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.500587418747035</v>
+        <v>1.481472105174476</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.150092906634301</v>
@@ -24225,7 +24189,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.510081531051865</v>
+        <v>1.488401495668396</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.114687654269578</v>
@@ -24314,7 +24278,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.510822618805836</v>
+        <v>1.488778094123798</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.12256715241925</v>
@@ -24403,7 +24367,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.515545238349155</v>
+        <v>1.49283006847944</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.153071873771452</v>
@@ -24492,7 +24456,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.520167599002366</v>
+        <v>1.50112253178751</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.092126951348042</v>
@@ -24581,7 +24545,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.517812815621997</v>
+        <v>1.501120167871012</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.152131841952593</v>
@@ -24670,7 +24634,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.526394892251519</v>
+        <v>1.511427887687858</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.13515366055912</v>
@@ -24759,7 +24723,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.524746991070641</v>
+        <v>1.507922365647068</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.135706337185004</v>
@@ -24848,7 +24812,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.521692615183956</v>
+        <v>1.509866688524894</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.11344186057087</v>
@@ -24937,7 +24901,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.531643061973406</v>
+        <v>1.515748186238082</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.063131356296819</v>
@@ -25223,7 +25187,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.175273758254357</v>
+        <v>1.167050665963672</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.874963534685695</v>
@@ -25312,7 +25276,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.172308999760748</v>
+        <v>1.163185762481699</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.879093288922541</v>
@@ -25401,7 +25365,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.153515188230956</v>
+        <v>1.143595394306465</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.911506532611251</v>
@@ -25490,7 +25454,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.141894710389868</v>
+        <v>1.12939089499066</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.913874433350269</v>
@@ -25579,7 +25543,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.147602550495514</v>
+        <v>1.135742835650319</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.918444913666359</v>
@@ -25668,7 +25632,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.158786034815043</v>
+        <v>1.147583567308813</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.888965058883997</v>
@@ -25757,7 +25721,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.182099889958547</v>
+        <v>1.174603281656913</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.14793764473071</v>
@@ -25846,7 +25810,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.184628313434465</v>
+        <v>1.183364043572922</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.069694235110704</v>
@@ -25935,7 +25899,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.193877410756553</v>
+        <v>1.19709455854441</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.057114303990161</v>
@@ -26024,7 +25988,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.19089445231926</v>
+        <v>1.195141835057631</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.105545057556557</v>
@@ -26113,7 +26077,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.175058179850191</v>
+        <v>1.182597901011709</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.235346102821757</v>
@@ -26202,7 +26166,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.168851466836044</v>
+        <v>1.177486374670091</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.075111326365985</v>
@@ -26291,7 +26255,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.170355519519972</v>
+        <v>1.179917856821792</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.130900926041102</v>
@@ -26380,7 +26344,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.17673361125732</v>
+        <v>1.187010669887937</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.200968851227779</v>
@@ -26469,7 +26433,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.188108901817645</v>
+        <v>1.198175192708031</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.228327381608303</v>
@@ -26558,7 +26522,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.184044449238926</v>
+        <v>1.1985642967426</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.131718711941982</v>
@@ -26647,7 +26611,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.194283716962308</v>
+        <v>1.204509344276554</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.046441413809679</v>
@@ -26736,7 +26700,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.20823875896015</v>
+        <v>1.215416557836195</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.950637529365361</v>
@@ -26825,7 +26789,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.211363989714149</v>
+        <v>1.195238123244203</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.95410358557758</v>
@@ -26914,7 +26878,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.181067337872918</v>
+        <v>1.173405175174562</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.919080994672193</v>
@@ -27003,7 +26967,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.155459969015745</v>
+        <v>1.148102898039127</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.899334275381514</v>
@@ -27092,7 +27056,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.136488511028576</v>
+        <v>1.12593450492977</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.030907901659956</v>
@@ -27181,7 +27145,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.135084571290239</v>
+        <v>1.121187191804479</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.046940712274782</v>
@@ -27270,7 +27234,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.124977942533629</v>
+        <v>1.108559077175819</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.067292110408637</v>
@@ -27359,7 +27323,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.124289265803333</v>
+        <v>1.108168388092165</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.104027036656045</v>
@@ -27448,7 +27412,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.118617790269925</v>
+        <v>1.101752117249805</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.055741584956754</v>
@@ -27537,7 +27501,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.115071531736994</v>
+        <v>1.097486809449073</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.119776071498292</v>
@@ -27626,7 +27590,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.109607550109884</v>
+        <v>1.091858042173016</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.129585462466575</v>
@@ -27715,7 +27679,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.102022783416768</v>
+        <v>1.084227959553538</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.153278172370425</v>
@@ -27804,7 +27768,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.097009765454653</v>
+        <v>1.076610639050124</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.131149141594237</v>
@@ -27893,7 +27857,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.090530118436814</v>
+        <v>1.071039059815792</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.248777518694286</v>
@@ -27982,7 +27946,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.083101116310003</v>
+        <v>1.062894435754513</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.184190854675591</v>
@@ -28071,7 +28035,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.078850672843015</v>
+        <v>1.061731917806419</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.213012923056223</v>
@@ -28160,7 +28124,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.078877262670529</v>
+        <v>1.067528298548891</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.969962889168328</v>
@@ -28249,7 +28213,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.086290366429849</v>
+        <v>1.074443004951153</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.030820227492413</v>
@@ -28338,7 +28302,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.097017624426534</v>
+        <v>1.085926464111438</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.978010068333811</v>
@@ -28427,7 +28391,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.098815413250627</v>
+        <v>1.089183065947447</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.017751667641559</v>
@@ -28516,7 +28480,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.099161992960088</v>
+        <v>1.093178436350719</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.010759644333569</v>
@@ -28605,7 +28569,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.104148433781099</v>
+        <v>1.100411944296738</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.940068787054213</v>
@@ -28694,7 +28658,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.107864272182267</v>
+        <v>1.094241420466701</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.846883716151124</v>
@@ -28783,7 +28747,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.086877858576941</v>
+        <v>1.082873989943844</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.834667437200921</v>
@@ -28872,7 +28836,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.091213611387551</v>
+        <v>1.088219815736251</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.847989658359794</v>
@@ -28961,7 +28925,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.090580799221001</v>
+        <v>1.087621151088723</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.841679099496774</v>
@@ -29050,7 +29014,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.091451930416813</v>
+        <v>1.088756294676689</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.775236090725735</v>
@@ -29139,7 +29103,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.085020155993514</v>
+        <v>1.083121703086596</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.686966908536577</v>
@@ -29228,7 +29192,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.097424067480689</v>
+        <v>1.093252153387557</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.800277547910891</v>
@@ -29317,7 +29281,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.097423246363066</v>
+        <v>1.093131261042178</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.804605641057898</v>
@@ -29406,7 +29370,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.096775463312838</v>
+        <v>1.093366689969335</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.773531526447207</v>
@@ -29495,7 +29459,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.090962613892337</v>
+        <v>1.087490455730434</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.750250225253392</v>
